--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Tech Mahindra Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Tech Mahindra Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\OneDrive\Desktop\Kishan\Contractzy\WebScrapping\Tutorial\Financial_Data\MoneyControl\Companies\IT Services &amp; Consulting\Tech Mahindra Ltd\Pruned_Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19728602-0905-4686-AEFF-2728B2C6610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -154,8 +160,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,13 +224,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -262,7 +276,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -296,6 +310,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -330,9 +345,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -505,14 +521,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -609,7 +628,7 @@
         <v>928.39</v>
       </c>
       <c r="G2">
-        <v>97.76000000000001</v>
+        <v>97.76</v>
       </c>
       <c r="H2">
         <v>353.73</v>
@@ -624,7 +643,7 @@
         <v>303.48</v>
       </c>
       <c r="L2">
-        <v>791.1900000000001</v>
+        <v>791.19</v>
       </c>
       <c r="M2">
         <v>137.19</v>
@@ -666,18 +685,18 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3">
-        <v>1197.14</v>
+        <v>1197.1400000000001</v>
       </c>
       <c r="C3">
-        <v>1197.14</v>
+        <v>1197.1400000000001</v>
       </c>
       <c r="D3">
-        <v>1197.14</v>
+        <v>1197.1400000000001</v>
       </c>
       <c r="E3">
         <v>27.44</v>
@@ -695,7 +714,7 @@
         <v>80.25</v>
       </c>
       <c r="J3">
-        <v>37.38</v>
+        <v>37.380000000000003</v>
       </c>
       <c r="K3">
         <v>279.86</v>
@@ -710,10 +729,10 @@
         <v>237.49</v>
       </c>
       <c r="O3">
-        <v>17.49</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="P3">
-        <v>-0.29</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="Q3">
         <v>20.52</v>
@@ -743,7 +762,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -775,16 +794,16 @@
         <v>46.28</v>
       </c>
       <c r="K4">
-        <v>638.42</v>
+        <v>638.41999999999996</v>
       </c>
       <c r="L4">
-        <v>2106.72</v>
+        <v>2106.7199999999998</v>
       </c>
       <c r="M4">
-        <v>651.6799999999999</v>
+        <v>651.67999999999995</v>
       </c>
       <c r="N4">
-        <v>651.6799999999999</v>
+        <v>651.67999999999995</v>
       </c>
       <c r="O4">
         <v>57.3</v>
@@ -796,13 +815,13 @@
         <v>61.51</v>
       </c>
       <c r="R4">
-        <v>590.17</v>
+        <v>590.16999999999996</v>
       </c>
       <c r="S4">
-        <v>99.18000000000001</v>
+        <v>99.18</v>
       </c>
       <c r="T4">
-        <v>99.18000000000001</v>
+        <v>99.18</v>
       </c>
       <c r="U4">
         <v>8.18</v>
@@ -820,7 +839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -843,13 +862,13 @@
         <v>729.5</v>
       </c>
       <c r="H5">
-        <v>1222.4</v>
+        <v>1222.4000000000001</v>
       </c>
       <c r="I5">
         <v>10</v>
       </c>
       <c r="J5">
-        <v>73.59999999999999</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="K5">
         <v>831.7</v>
@@ -870,7 +889,7 @@
         <v>-23.44</v>
       </c>
       <c r="Q5">
-        <v>68.90000000000001</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="R5">
         <v>756.9</v>
@@ -897,7 +916,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -914,7 +933,7 @@
         <v>-61.7</v>
       </c>
       <c r="F6">
-        <v>4296.1</v>
+        <v>4296.1000000000004</v>
       </c>
       <c r="G6">
         <v>966.1</v>
@@ -959,22 +978,22 @@
         <v>986.6</v>
       </c>
       <c r="U6">
-        <v>81.06999999999999</v>
+        <v>81.069999999999993</v>
       </c>
       <c r="V6">
-        <v>81.06999999999999</v>
+        <v>81.069999999999993</v>
       </c>
       <c r="W6">
         <v>48.8</v>
       </c>
       <c r="X6">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="Y6">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1000,13 +1019,13 @@
         <v>1598.7</v>
       </c>
       <c r="I7">
-        <v>155.2</v>
+        <v>155.19999999999999</v>
       </c>
       <c r="J7">
         <v>129.9</v>
       </c>
       <c r="K7">
-        <v>632.2</v>
+        <v>632.20000000000005</v>
       </c>
       <c r="L7">
         <v>3692</v>
@@ -1018,7 +1037,7 @@
         <v>858.8</v>
       </c>
       <c r="O7">
-        <v>138.2</v>
+        <v>138.19999999999999</v>
       </c>
       <c r="P7">
         <v>-6.8</v>
@@ -1051,7 +1070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1068,7 +1087,7 @@
         <v>126.6</v>
       </c>
       <c r="F8">
-        <v>5092.1</v>
+        <v>5092.1000000000004</v>
       </c>
       <c r="G8">
         <v>1412</v>
@@ -1080,13 +1099,13 @@
         <v>111.3</v>
       </c>
       <c r="J8">
-        <v>138.3</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="K8">
         <v>680.7</v>
       </c>
       <c r="L8">
-        <v>4286.1</v>
+        <v>4286.1000000000004</v>
       </c>
       <c r="M8">
         <v>806</v>
@@ -1095,7 +1114,7 @@
         <v>806</v>
       </c>
       <c r="O8">
-        <v>140.2</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="P8">
         <v>-30.9</v>
@@ -1122,13 +1141,13 @@
         <v>51</v>
       </c>
       <c r="X8">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="Y8">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1172,7 +1191,7 @@
         <v>579</v>
       </c>
       <c r="O9">
-        <v>147.2</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="P9">
         <v>-28.8</v>
@@ -1190,7 +1209,7 @@
         <v>460.6</v>
       </c>
       <c r="U9">
-        <v>36.27</v>
+        <v>36.270000000000003</v>
       </c>
       <c r="V9">
         <v>34.86</v>
@@ -1199,13 +1218,13 @@
         <v>51.4</v>
       </c>
       <c r="X9">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="Y9">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1228,7 +1247,7 @@
         <v>1674.3</v>
       </c>
       <c r="H10">
-        <v>2513.8</v>
+        <v>2513.8000000000002</v>
       </c>
       <c r="I10">
         <v>109</v>
@@ -1273,7 +1292,7 @@
         <v>48.99</v>
       </c>
       <c r="W10">
-        <v>64.09999999999999</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="X10">
         <v>10.9</v>
@@ -1282,7 +1301,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1329,7 +1348,7 @@
         <v>843.3</v>
       </c>
       <c r="P11">
-        <v>-64.40000000000001</v>
+        <v>-64.400000000000006</v>
       </c>
       <c r="Q11">
         <v>778.9</v>
@@ -1353,13 +1372,13 @@
         <v>467</v>
       </c>
       <c r="X11">
-        <v>79.40000000000001</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="Y11">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1403,7 +1422,7 @@
         <v>2930.5</v>
       </c>
       <c r="O12">
-        <v>648.7</v>
+        <v>648.70000000000005</v>
       </c>
       <c r="P12">
         <v>25.6</v>
@@ -1412,13 +1431,13 @@
         <v>674.3</v>
       </c>
       <c r="R12">
-        <v>2256.2</v>
+        <v>2256.1999999999998</v>
       </c>
       <c r="S12">
-        <v>2256.2</v>
+        <v>2256.1999999999998</v>
       </c>
       <c r="T12">
-        <v>2256.2</v>
+        <v>2256.1999999999998</v>
       </c>
       <c r="U12">
         <v>23.58</v>
@@ -1427,7 +1446,7 @@
         <v>22.96</v>
       </c>
       <c r="W12">
-        <v>579.3</v>
+        <v>579.29999999999995</v>
       </c>
       <c r="X12">
         <v>117.8</v>
@@ -1436,7 +1455,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1450,7 +1469,7 @@
         <v>20969.8</v>
       </c>
       <c r="E13">
-        <v>1108.4</v>
+        <v>1108.4000000000001</v>
       </c>
       <c r="F13">
         <v>22078.2</v>
@@ -1471,7 +1490,7 @@
         <v>9552</v>
       </c>
       <c r="L13">
-        <v>18154.9</v>
+        <v>18154.900000000001</v>
       </c>
       <c r="M13">
         <v>3923.3</v>
@@ -1504,7 +1523,7 @@
         <v>32.71</v>
       </c>
       <c r="W13">
-        <v>1162.1</v>
+        <v>1162.0999999999999</v>
       </c>
       <c r="X13">
         <v>236.4</v>
@@ -1513,7 +1532,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1542,13 +1561,13 @@
         <v>63.8</v>
       </c>
       <c r="J14">
-        <v>622.2</v>
+        <v>622.20000000000005</v>
       </c>
       <c r="K14">
         <v>2992.3</v>
       </c>
       <c r="L14">
-        <v>20179.6</v>
+        <v>20179.599999999999</v>
       </c>
       <c r="M14">
         <v>3878.7</v>
@@ -1590,18 +1609,18 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
       <c r="B15">
-        <v>23661.2</v>
+        <v>23661.200000000001</v>
       </c>
       <c r="C15">
-        <v>23661.2</v>
+        <v>23661.200000000001</v>
       </c>
       <c r="D15">
-        <v>23661.2</v>
+        <v>23661.200000000001</v>
       </c>
       <c r="E15">
         <v>1730.7</v>
@@ -1625,7 +1644,7 @@
         <v>2639</v>
       </c>
       <c r="L15">
-        <v>20485.4</v>
+        <v>20485.400000000001</v>
       </c>
       <c r="M15">
         <v>4906.5</v>
@@ -1652,13 +1671,13 @@
         <v>3999.3</v>
       </c>
       <c r="U15">
-        <v>40.84</v>
+        <v>40.840000000000003</v>
       </c>
       <c r="V15">
         <v>40.53</v>
       </c>
       <c r="W15">
-        <v>1036.1</v>
+        <v>1036.0999999999999</v>
       </c>
       <c r="X15">
         <v>59.51</v>
@@ -1667,18 +1686,18 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16">
-        <v>27219.6</v>
+        <v>27219.599999999999</v>
       </c>
       <c r="C16">
-        <v>27219.6</v>
+        <v>27219.599999999999</v>
       </c>
       <c r="D16">
-        <v>27219.6</v>
+        <v>27219.599999999999</v>
       </c>
       <c r="E16">
         <v>960.1</v>
@@ -1702,7 +1721,7 @@
         <v>3349.6</v>
       </c>
       <c r="L16">
-        <v>22752.4</v>
+        <v>22752.400000000001</v>
       </c>
       <c r="M16">
         <v>5427.3</v>
@@ -1717,16 +1736,16 @@
         <v>-18.3</v>
       </c>
       <c r="Q16">
-        <v>1046.9</v>
+        <v>1046.9000000000001</v>
       </c>
       <c r="R16">
-        <v>4380.4</v>
+        <v>4380.3999999999996</v>
       </c>
       <c r="S16">
-        <v>4380.4</v>
+        <v>4380.3999999999996</v>
       </c>
       <c r="T16">
-        <v>4380.4</v>
+        <v>4380.3999999999996</v>
       </c>
       <c r="U16">
         <v>44.58</v>
@@ -1738,13 +1757,13 @@
         <v>1376.7</v>
       </c>
       <c r="X16">
-        <v>264.4</v>
+        <v>264.39999999999998</v>
       </c>
       <c r="Y16">
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1758,16 +1777,16 @@
         <v>29225.4</v>
       </c>
       <c r="E17">
-        <v>2366.2</v>
+        <v>2366.1999999999998</v>
       </c>
       <c r="F17">
-        <v>31591.6</v>
+        <v>31591.599999999999</v>
       </c>
       <c r="G17">
         <v>11607.4</v>
       </c>
       <c r="H17">
-        <v>9282.700000000001</v>
+        <v>9282.7000000000007</v>
       </c>
       <c r="I17">
         <v>66.7</v>
@@ -1791,7 +1810,7 @@
         <v>881.3</v>
       </c>
       <c r="P17">
-        <v>-83.59999999999999</v>
+        <v>-83.6</v>
       </c>
       <c r="Q17">
         <v>797.7</v>
@@ -1821,7 +1840,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1868,19 +1887,19 @@
         <v>1360.4</v>
       </c>
       <c r="P18">
-        <v>-72.90000000000001</v>
+        <v>-72.900000000000006</v>
       </c>
       <c r="Q18">
         <v>1287.5</v>
       </c>
       <c r="R18">
-        <v>4239.1</v>
+        <v>4239.1000000000004</v>
       </c>
       <c r="S18">
-        <v>4239.1</v>
+        <v>4239.1000000000004</v>
       </c>
       <c r="T18">
-        <v>4239.1</v>
+        <v>4239.1000000000004</v>
       </c>
       <c r="U18">
         <v>43.76</v>
@@ -1898,7 +1917,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1942,7 +1961,7 @@
         <v>6284.6</v>
       </c>
       <c r="O19">
-        <v>1240.9</v>
+        <v>1240.9000000000001</v>
       </c>
       <c r="P19">
         <v>130.6</v>
@@ -1951,13 +1970,13 @@
         <v>1371.5</v>
       </c>
       <c r="R19">
-        <v>4913.1</v>
+        <v>4913.1000000000004</v>
       </c>
       <c r="S19">
-        <v>4913.1</v>
+        <v>4913.1000000000004</v>
       </c>
       <c r="T19">
-        <v>4913.1</v>
+        <v>4913.1000000000004</v>
       </c>
       <c r="U19">
         <v>50.48</v>
@@ -1966,7 +1985,7 @@
         <v>50.11</v>
       </c>
       <c r="W19">
-        <v>4362.4</v>
+        <v>4362.3999999999996</v>
       </c>
       <c r="X19">
         <v>59.51</v>
@@ -1975,7 +1994,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1992,7 +2011,7 @@
         <v>1128.3</v>
       </c>
       <c r="F20">
-        <v>43785.6</v>
+        <v>43785.599999999999</v>
       </c>
       <c r="G20">
         <v>17036.8</v>
@@ -2013,19 +2032,19 @@
         <v>38881.5</v>
       </c>
       <c r="M20">
-        <v>4904.1</v>
+        <v>4904.1000000000004</v>
       </c>
       <c r="N20">
-        <v>4904.1</v>
+        <v>4904.1000000000004</v>
       </c>
       <c r="O20">
         <v>1202.7</v>
       </c>
       <c r="P20">
-        <v>-76.09999999999999</v>
+        <v>-76.099999999999994</v>
       </c>
       <c r="Q20">
-        <v>1126.6</v>
+        <v>1126.5999999999999</v>
       </c>
       <c r="R20">
         <v>3777.5</v>
@@ -2052,7 +2071,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2072,7 +2091,7 @@
         <v>43351.8</v>
       </c>
       <c r="G21">
-        <v>16688.6</v>
+        <v>16688.599999999999</v>
       </c>
       <c r="H21">
         <v>16082.3</v>
@@ -2090,10 +2109,10 @@
         <v>40787.1</v>
       </c>
       <c r="M21">
-        <v>2564.7</v>
+        <v>2564.6999999999998</v>
       </c>
       <c r="N21">
-        <v>2564.7</v>
+        <v>2564.6999999999998</v>
       </c>
       <c r="O21">
         <v>622.9</v>
